--- a/power_v2_data.xlsx
+++ b/power_v2_data.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5025"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5025" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>COOKER</t>
   </si>
@@ -44,22 +45,25 @@
     <t>Bulb</t>
   </si>
   <si>
-    <t>Utility Price</t>
-  </si>
-  <si>
-    <t>Net load</t>
-  </si>
-  <si>
     <t>Load</t>
-  </si>
-  <si>
-    <t>pv power</t>
   </si>
   <si>
     <t>TIME</t>
   </si>
   <si>
     <t>TOTALS</t>
+  </si>
+  <si>
+    <t>Irradiance</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Utility SP</t>
+  </si>
+  <si>
+    <t>Utility BP</t>
   </si>
 </sst>
 </file>
@@ -89,7 +93,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -112,16 +116,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection sqref="A1:Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,7 +431,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1">
         <v>5</v>
@@ -424,71 +440,71 @@
         <v>6</v>
       </c>
       <c r="D1" s="1">
-        <f>C1+1</f>
+        <f t="shared" ref="D1:T1" si="0">C1+1</f>
         <v>7</v>
       </c>
       <c r="E1" s="1">
-        <f>D1+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F1" s="1">
-        <f>E1+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G1" s="1">
-        <f>F1+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H1" s="1">
-        <f>G1+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="I1" s="1">
-        <f>H1+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="J1" s="1">
-        <f>I1+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="K1" s="1">
-        <f>J1+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="L1" s="1">
-        <f>K1+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="M1" s="1">
-        <f>L1+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="N1" s="1">
-        <f>M1+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="O1" s="1">
-        <f>N1+1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="P1" s="1">
-        <f>O1+1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="Q1" s="1">
-        <f>P1+1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="R1" s="1">
-        <f>Q1+1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="S1" s="1">
-        <f>R1+1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="T1" s="1">
-        <f>S1+1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="U1" s="1">
@@ -511,7 +527,7 @@
         <v>4</v>
       </c>
       <c r="Z1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
@@ -522,30 +538,52 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+        <v>1.78</v>
+      </c>
+      <c r="D2" s="1">
+        <v>96.12</v>
+      </c>
+      <c r="E2" s="1">
+        <v>242.97</v>
+      </c>
+      <c r="F2" s="1">
+        <v>409.4</v>
+      </c>
+      <c r="G2" s="1">
+        <v>541.12</v>
+      </c>
+      <c r="H2" s="1">
+        <v>551.79999999999995</v>
+      </c>
+      <c r="I2" s="1">
+        <v>295.48</v>
+      </c>
+      <c r="J2" s="1">
+        <v>249.2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>266.11</v>
+      </c>
+      <c r="L2" s="1">
+        <v>200.25</v>
+      </c>
+      <c r="M2" s="1">
+        <v>235.85</v>
+      </c>
+      <c r="N2" s="1">
+        <v>209.15</v>
+      </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>179.78</v>
       </c>
       <c r="P2" s="1">
-        <v>0</v>
+        <v>141.51</v>
       </c>
       <c r="Q2" s="1">
-        <v>0</v>
+        <v>94.34</v>
       </c>
       <c r="R2" s="1">
-        <v>0</v>
+        <v>40.94</v>
       </c>
       <c r="S2" s="1">
         <v>0</v>
@@ -569,213 +607,189 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <f>SUM(B2:Y2)</f>
-        <v>0</v>
+        <f>AVERAGE(B2:Y2)</f>
+        <v>156.4916666666667</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
-        <f>SUM(B8:B13)</f>
-        <v>3020</v>
+        <v>20.59</v>
       </c>
       <c r="C3" s="1">
-        <f>SUM(C8:C13)</f>
-        <v>290</v>
+        <v>21.43</v>
       </c>
       <c r="D3" s="1">
-        <f>SUM(D8:D13)</f>
-        <v>130</v>
+        <v>22.32</v>
       </c>
       <c r="E3" s="1">
-        <f>SUM(E8:E13)</f>
-        <v>60</v>
+        <v>26.24</v>
       </c>
       <c r="F3" s="1">
-        <f>SUM(F8:F13)</f>
-        <v>60</v>
+        <v>29.05</v>
       </c>
       <c r="G3" s="1">
-        <f>SUM(G8:G13)</f>
-        <v>360</v>
+        <v>30.78</v>
       </c>
       <c r="H3" s="1">
-        <f>SUM(H8:H13)</f>
-        <v>60</v>
+        <v>30.65</v>
       </c>
       <c r="I3" s="1">
-        <f>SUM(I8:I13)</f>
-        <v>1060</v>
+        <v>30.76</v>
       </c>
       <c r="J3" s="1">
-        <f>SUM(J8:J13)</f>
-        <v>130</v>
+        <v>29.31</v>
       </c>
       <c r="K3" s="1">
-        <f>SUM(K8:K13)</f>
-        <v>60</v>
-      </c>
-      <c r="L3" s="1">
-        <f>SUM(L8:L13)</f>
-        <v>60</v>
+        <v>29.55</v>
+      </c>
+      <c r="L3" s="3">
+        <v>28.87</v>
       </c>
       <c r="M3" s="1">
-        <f>SUM(M8:M13)</f>
-        <v>60</v>
+        <v>28.86</v>
       </c>
       <c r="N3" s="1">
-        <f>SUM(N8:N13)</f>
-        <v>1930</v>
+        <v>28.59</v>
       </c>
       <c r="O3" s="1">
-        <f>SUM(O8:O13)</f>
-        <v>1290</v>
+        <v>28.72</v>
       </c>
       <c r="P3" s="1">
-        <f>SUM(P8:P13)</f>
-        <v>290</v>
+        <v>28.49</v>
       </c>
       <c r="Q3" s="1">
-        <f>SUM(Q8:Q13)</f>
-        <v>290</v>
+        <v>27.23</v>
       </c>
       <c r="R3" s="1">
-        <f>SUM(R8:R13)</f>
-        <v>60</v>
+        <v>25.36</v>
       </c>
       <c r="S3" s="1">
-        <f>SUM(S8:S13)</f>
-        <v>60</v>
+        <v>23.33</v>
       </c>
       <c r="T3" s="1">
-        <f>SUM(T8:T13)</f>
-        <v>60</v>
+        <v>21.94</v>
       </c>
       <c r="U3" s="1">
-        <f>SUM(U8:U13)</f>
-        <v>60</v>
+        <v>23.13</v>
       </c>
       <c r="V3" s="1">
-        <f>SUM(V8:V13)</f>
-        <v>60</v>
+        <v>22.46</v>
       </c>
       <c r="W3" s="1">
-        <f>SUM(W8:W13)</f>
-        <v>60</v>
+        <v>21.43</v>
       </c>
       <c r="X3" s="1">
-        <f>SUM(X8:X13)</f>
-        <v>60</v>
+        <v>21.43</v>
       </c>
       <c r="Y3" s="1">
-        <f>SUM(Y8:Y13)</f>
-        <v>60</v>
+        <v>20.59</v>
       </c>
       <c r="Z3">
-        <f>SUM(B3:Y3)</f>
-        <v>9630</v>
+        <f>AVERAGE(B3:Y3)</f>
+        <v>25.879583333333333</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
-        <f>B3-B2</f>
-        <v>3020</v>
+        <f t="shared" ref="B4:Y4" si="1">SUM(B9:B14)</f>
+        <v>2020</v>
       </c>
       <c r="C4" s="1">
-        <f>C3-C2</f>
+        <f>SUM(C9:C14)</f>
+        <v>1290</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="1"/>
+        <v>1060</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="1"/>
+        <v>1930</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="1"/>
+        <v>1290</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
-      <c r="D4" s="1">
-        <f>D3-D2</f>
-        <v>130</v>
-      </c>
-      <c r="E4" s="1">
-        <f>E3-E2</f>
-        <v>60</v>
-      </c>
-      <c r="F4" s="1">
-        <f>F3-F2</f>
-        <v>60</v>
-      </c>
-      <c r="G4" s="1">
-        <f>G3-G2</f>
-        <v>360</v>
-      </c>
-      <c r="H4" s="1">
-        <f>H3-H2</f>
-        <v>60</v>
-      </c>
-      <c r="I4" s="1">
-        <f>I3-I2</f>
-        <v>1060</v>
-      </c>
-      <c r="J4" s="1">
-        <f>J3-J2</f>
-        <v>130</v>
-      </c>
-      <c r="K4" s="1">
-        <f>K3-K2</f>
-        <v>60</v>
-      </c>
-      <c r="L4" s="1">
-        <f>L3-L2</f>
-        <v>60</v>
-      </c>
-      <c r="M4" s="1">
-        <f>M3-M2</f>
-        <v>60</v>
-      </c>
-      <c r="N4" s="1">
-        <f>N3-N2</f>
-        <v>1930</v>
-      </c>
-      <c r="O4" s="1">
-        <f>O3-O2</f>
-        <v>1290</v>
-      </c>
-      <c r="P4" s="1">
-        <f>P3-P2</f>
+      <c r="Q4" s="1">
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
-      <c r="Q4" s="1">
-        <f>Q3-Q2</f>
-        <v>290</v>
-      </c>
       <c r="R4" s="1">
-        <f>R3-R2</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="S4" s="1">
-        <f>S3-S2</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="T4" s="1">
-        <f>T3-T2</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="U4" s="1">
-        <f>U3-U2</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="V4" s="1">
-        <f>V3-V2</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="W4" s="1">
-        <f>W3-W2</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="X4" s="1">
-        <f>X3-X2</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="Y4" s="1">
-        <f>Y3-Y2</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="Z4">
@@ -785,7 +799,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2">
         <v>6.45</v>
@@ -860,92 +874,92 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>160</v>
-      </c>
-      <c r="C8" s="1">
-        <v>160</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>160</v>
-      </c>
-      <c r="P8" s="1">
-        <v>160</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>160</v>
-      </c>
-      <c r="R8" s="1">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1">
-        <v>0</v>
-      </c>
-      <c r="T8" s="1">
-        <v>0</v>
-      </c>
-      <c r="U8" s="1">
-        <v>0</v>
-      </c>
-      <c r="V8" s="1">
-        <v>0</v>
-      </c>
-      <c r="W8" s="1">
-        <v>0</v>
-      </c>
-      <c r="X8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>0</v>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6.45</v>
+      </c>
+      <c r="C6" s="2">
+        <v>19.34</v>
+      </c>
+      <c r="D6" s="2">
+        <v>28.16</v>
+      </c>
+      <c r="E6" s="2">
+        <v>28.4</v>
+      </c>
+      <c r="F6" s="2">
+        <v>31.75</v>
+      </c>
+      <c r="G6" s="2">
+        <v>31.52</v>
+      </c>
+      <c r="H6" s="2">
+        <v>31.87</v>
+      </c>
+      <c r="I6" s="2">
+        <v>30.7</v>
+      </c>
+      <c r="J6" s="2">
+        <v>31.44</v>
+      </c>
+      <c r="K6" s="2">
+        <v>29.76</v>
+      </c>
+      <c r="L6" s="2">
+        <v>30.2</v>
+      </c>
+      <c r="M6" s="2">
+        <v>36.630000000000003</v>
+      </c>
+      <c r="N6" s="2">
+        <v>34.78</v>
+      </c>
+      <c r="O6" s="2">
+        <v>39.630000000000003</v>
+      </c>
+      <c r="P6" s="2">
+        <v>33.24</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>37.08</v>
+      </c>
+      <c r="R6" s="2">
+        <v>33.840000000000003</v>
+      </c>
+      <c r="S6" s="2">
+        <v>21.49</v>
+      </c>
+      <c r="T6" s="2">
+        <v>23.47</v>
+      </c>
+      <c r="U6" s="2">
+        <v>4.05</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="W6" s="2">
+        <v>6.08</v>
+      </c>
+      <c r="X6" s="2">
+        <v>1.86</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0.84</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1">
-        <v>1800</v>
+        <v>160</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -978,16 +992,16 @@
         <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="P9" s="1">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="Q9" s="1">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="R9" s="1">
         <v>0</v>
@@ -1016,10 +1030,10 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -1034,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -1054,10 +1068,18 @@
       <c r="M10" s="1">
         <v>0</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="N10" s="1">
+        <v>1800</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
       <c r="R10" s="1">
         <v>0</v>
       </c>
@@ -1085,16 +1107,16 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -1103,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -1112,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
@@ -1123,18 +1145,10 @@
       <c r="M11" s="1">
         <v>0</v>
       </c>
-      <c r="N11" s="1">
-        <v>70</v>
-      </c>
-      <c r="O11" s="1">
-        <v>70</v>
-      </c>
-      <c r="P11" s="1">
-        <v>70</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>70</v>
-      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
       <c r="R11" s="1">
         <v>0</v>
       </c>
@@ -1162,156 +1176,1252 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D12" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E12" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K12" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L12" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="O12" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="P12" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Q12" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R12" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="S12" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="T12" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="V12" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="W12" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="X12" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1">
+        <v>60</v>
+      </c>
+      <c r="C13" s="1">
+        <v>60</v>
+      </c>
+      <c r="D13" s="1">
+        <v>60</v>
+      </c>
+      <c r="E13" s="1">
+        <v>60</v>
+      </c>
+      <c r="F13" s="1">
+        <v>60</v>
+      </c>
+      <c r="G13" s="1">
+        <v>60</v>
+      </c>
+      <c r="H13" s="1">
+        <v>60</v>
+      </c>
+      <c r="I13" s="1">
+        <v>60</v>
+      </c>
+      <c r="J13" s="1">
+        <v>60</v>
+      </c>
+      <c r="K13" s="1">
+        <v>60</v>
+      </c>
+      <c r="L13" s="1">
+        <v>60</v>
+      </c>
+      <c r="M13" s="1">
+        <v>60</v>
+      </c>
+      <c r="N13" s="1">
+        <v>60</v>
+      </c>
+      <c r="O13" s="1">
+        <v>60</v>
+      </c>
+      <c r="P13" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>60</v>
+      </c>
+      <c r="R13" s="1">
+        <v>60</v>
+      </c>
+      <c r="S13" s="1">
+        <v>60</v>
+      </c>
+      <c r="T13" s="1">
+        <v>60</v>
+      </c>
+      <c r="U13" s="1">
+        <v>60</v>
+      </c>
+      <c r="V13" s="1">
+        <v>60</v>
+      </c>
+      <c r="W13" s="1">
+        <v>60</v>
+      </c>
+      <c r="X13" s="1">
+        <v>60</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
         <v>1000</v>
       </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>20.59</v>
+      </c>
+      <c r="D2" s="1">
+        <f>SUM(I2:N2)</f>
+        <v>2020</v>
+      </c>
+      <c r="E2" s="2">
+        <v>6.45</v>
+      </c>
+      <c r="F2" s="2">
+        <v>6.45</v>
+      </c>
+      <c r="I2" s="1">
+        <v>160</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1800</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>60</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="C3" s="1">
+        <v>21.43</v>
+      </c>
+      <c r="D3" s="1">
+        <f>SUM(I3:N3)</f>
+        <v>1290</v>
+      </c>
+      <c r="E3" s="2">
+        <v>19.34</v>
+      </c>
+      <c r="F3" s="2">
+        <v>19.34</v>
+      </c>
+      <c r="I3" s="1">
+        <v>160</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>70</v>
+      </c>
+      <c r="M3" s="1">
+        <v>60</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f>A3+1</f>
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>96.12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>22.32</v>
+      </c>
+      <c r="D4" s="1">
+        <f>SUM(I4:N4)</f>
+        <v>130</v>
+      </c>
+      <c r="E4" s="2">
+        <v>28.16</v>
+      </c>
+      <c r="F4" s="2">
+        <v>28.16</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>70</v>
+      </c>
+      <c r="M4" s="1">
+        <v>60</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f>A4+1</f>
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>242.97</v>
+      </c>
+      <c r="C5" s="1">
+        <v>26.24</v>
+      </c>
+      <c r="D5" s="1">
+        <f>SUM(I5:N5)</f>
+        <v>60</v>
+      </c>
+      <c r="E5" s="2">
+        <v>28.4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>28.4</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>60</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f>A5+1</f>
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>409.4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>29.05</v>
+      </c>
+      <c r="D6" s="1">
+        <f>SUM(I6:N6)</f>
+        <v>60</v>
+      </c>
+      <c r="E6" s="2">
+        <v>31.75</v>
+      </c>
+      <c r="F6" s="2">
+        <v>31.75</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>60</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f>A6+1</f>
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>541.12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>30.78</v>
+      </c>
+      <c r="D7" s="1">
+        <f>SUM(I7:N7)</f>
+        <v>360</v>
+      </c>
+      <c r="E7" s="2">
+        <v>31.52</v>
+      </c>
+      <c r="F7" s="2">
+        <v>31.52</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>300</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>60</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f>A7+1</f>
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>551.79999999999995</v>
+      </c>
+      <c r="C8" s="1">
+        <v>30.65</v>
+      </c>
+      <c r="D8" s="1">
+        <f>SUM(I8:N8)</f>
+        <v>60</v>
+      </c>
+      <c r="E8" s="2">
+        <v>31.87</v>
+      </c>
+      <c r="F8" s="2">
+        <v>31.87</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>60</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f>A8+1</f>
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>295.48</v>
+      </c>
+      <c r="C9" s="1">
+        <v>30.76</v>
+      </c>
+      <c r="D9" s="1">
+        <f>SUM(I9:N9)</f>
+        <v>1060</v>
+      </c>
+      <c r="E9" s="2">
+        <v>30.7</v>
+      </c>
+      <c r="F9" s="2">
+        <v>30.7</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>60</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f>A9+1</f>
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <v>249.2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>29.31</v>
+      </c>
+      <c r="D10" s="1">
+        <f>SUM(I10:N10)</f>
+        <v>130</v>
+      </c>
+      <c r="E10" s="2">
+        <v>31.44</v>
+      </c>
+      <c r="F10" s="2">
+        <v>31.44</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>70</v>
+      </c>
+      <c r="M10" s="1">
+        <v>60</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f>A10+1</f>
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>266.11</v>
+      </c>
+      <c r="C11" s="1">
+        <v>29.55</v>
+      </c>
+      <c r="D11" s="1">
+        <f>SUM(I11:N11)</f>
+        <v>60</v>
+      </c>
+      <c r="E11" s="2">
+        <v>29.76</v>
+      </c>
+      <c r="F11" s="2">
+        <v>29.76</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>60</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f>A11+1</f>
+        <v>15</v>
+      </c>
+      <c r="B12" s="1">
+        <v>200.25</v>
+      </c>
+      <c r="C12" s="3">
+        <v>28.87</v>
+      </c>
+      <c r="D12" s="1">
+        <f>SUM(I12:N12)</f>
+        <v>60</v>
+      </c>
+      <c r="E12" s="2">
+        <v>30.2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>30.2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>60</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f>A12+1</f>
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>235.85</v>
+      </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>28.86</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
+        <f>SUM(I13:N13)</f>
+        <v>60</v>
+      </c>
+      <c r="E13" s="2">
+        <v>36.630000000000003</v>
+      </c>
+      <c r="F13" s="2">
+        <v>36.630000000000003</v>
       </c>
       <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>60</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <f>A13+1</f>
+        <v>17</v>
+      </c>
+      <c r="B14" s="1">
+        <v>209.15</v>
+      </c>
+      <c r="C14" s="1">
+        <v>28.59</v>
+      </c>
+      <c r="D14" s="1">
+        <f>SUM(I14:N14)</f>
+        <v>1930</v>
+      </c>
+      <c r="E14" s="2">
+        <v>34.78</v>
+      </c>
+      <c r="F14" s="2">
+        <v>34.78</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1800</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1">
+        <v>70</v>
+      </c>
+      <c r="M14" s="1">
+        <v>60</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f>A14+1</f>
+        <v>18</v>
+      </c>
+      <c r="B15" s="1">
+        <v>179.78</v>
+      </c>
+      <c r="C15" s="1">
+        <v>28.72</v>
+      </c>
+      <c r="D15" s="1">
+        <f>SUM(I15:N15)</f>
+        <v>1290</v>
+      </c>
+      <c r="E15" s="2">
+        <v>39.630000000000003</v>
+      </c>
+      <c r="F15" s="2">
+        <v>39.630000000000003</v>
+      </c>
+      <c r="I15" s="1">
+        <v>160</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1">
+        <v>70</v>
+      </c>
+      <c r="M15" s="1">
+        <v>60</v>
+      </c>
+      <c r="N15" s="1">
         <v>1000</v>
       </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1">
-        <v>1000</v>
-      </c>
-      <c r="P13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>0</v>
-      </c>
-      <c r="R13" s="1">
-        <v>0</v>
-      </c>
-      <c r="S13" s="1">
-        <v>0</v>
-      </c>
-      <c r="T13" s="1">
-        <v>0</v>
-      </c>
-      <c r="U13" s="1">
-        <v>0</v>
-      </c>
-      <c r="V13" s="1">
-        <v>0</v>
-      </c>
-      <c r="W13" s="1">
-        <v>0</v>
-      </c>
-      <c r="X13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="1">
-        <v>0</v>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f>A15+1</f>
+        <v>19</v>
+      </c>
+      <c r="B16" s="1">
+        <v>141.51</v>
+      </c>
+      <c r="C16" s="1">
+        <v>28.49</v>
+      </c>
+      <c r="D16" s="1">
+        <f>SUM(I16:N16)</f>
+        <v>290</v>
+      </c>
+      <c r="E16" s="2">
+        <v>33.24</v>
+      </c>
+      <c r="F16" s="2">
+        <v>33.24</v>
+      </c>
+      <c r="I16" s="1">
+        <v>160</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1">
+        <v>70</v>
+      </c>
+      <c r="M16" s="1">
+        <v>60</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f>A16+1</f>
+        <v>20</v>
+      </c>
+      <c r="B17" s="1">
+        <v>94.34</v>
+      </c>
+      <c r="C17" s="1">
+        <v>27.23</v>
+      </c>
+      <c r="D17" s="1">
+        <f>SUM(I17:N17)</f>
+        <v>290</v>
+      </c>
+      <c r="E17" s="2">
+        <v>37.08</v>
+      </c>
+      <c r="F17" s="2">
+        <v>37.08</v>
+      </c>
+      <c r="I17" s="1">
+        <v>160</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1">
+        <v>70</v>
+      </c>
+      <c r="M17" s="1">
+        <v>60</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f>A17+1</f>
+        <v>21</v>
+      </c>
+      <c r="B18" s="1">
+        <v>40.94</v>
+      </c>
+      <c r="C18" s="1">
+        <v>25.36</v>
+      </c>
+      <c r="D18" s="1">
+        <f>SUM(I18:N18)</f>
+        <v>60</v>
+      </c>
+      <c r="E18" s="2">
+        <v>33.840000000000003</v>
+      </c>
+      <c r="F18" s="2">
+        <v>33.840000000000003</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>60</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f>A18+1</f>
+        <v>22</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>23.33</v>
+      </c>
+      <c r="D19" s="1">
+        <f>SUM(I19:N19)</f>
+        <v>60</v>
+      </c>
+      <c r="E19" s="2">
+        <v>21.49</v>
+      </c>
+      <c r="F19" s="2">
+        <v>21.49</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>60</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f>A19+1</f>
+        <v>23</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>21.94</v>
+      </c>
+      <c r="D20" s="1">
+        <f>SUM(I20:N20)</f>
+        <v>60</v>
+      </c>
+      <c r="E20" s="2">
+        <v>23.47</v>
+      </c>
+      <c r="F20" s="2">
+        <v>23.47</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>60</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>23.13</v>
+      </c>
+      <c r="D21" s="1">
+        <f>SUM(I21:N21)</f>
+        <v>60</v>
+      </c>
+      <c r="E21" s="2">
+        <v>4.05</v>
+      </c>
+      <c r="F21" s="2">
+        <v>4.05</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>60</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f>A21+1</f>
+        <v>1</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>22.46</v>
+      </c>
+      <c r="D22" s="1">
+        <f>SUM(I22:N22)</f>
+        <v>60</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>60</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <f>A22+1</f>
+        <v>2</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>21.43</v>
+      </c>
+      <c r="D23" s="1">
+        <f>SUM(I23:N23)</f>
+        <v>60</v>
+      </c>
+      <c r="E23" s="2">
+        <v>6.08</v>
+      </c>
+      <c r="F23" s="2">
+        <v>6.08</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>60</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <f>A23+1</f>
+        <v>3</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>21.43</v>
+      </c>
+      <c r="D24" s="1">
+        <f>SUM(I24:N24)</f>
+        <v>60</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1.86</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1.86</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>60</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <f>A24+1</f>
+        <v>4</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>20.59</v>
+      </c>
+      <c r="D25" s="1">
+        <f>SUM(I25:N25)</f>
+        <v>60</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>60</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <f>AVERAGE(B2:B25)</f>
+        <v>156.4916666666667</v>
+      </c>
+      <c r="C26">
+        <f>AVERAGE(C2:C25)</f>
+        <v>25.879583333333333</v>
+      </c>
+      <c r="D26">
+        <f>SUM(D2:D25)</f>
+        <v>9630</v>
       </c>
     </row>
   </sheetData>

--- a/power_v2_data.xlsx
+++ b/power_v2_data.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5025" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5025" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="16">
   <si>
     <t>COOKER</t>
   </si>
@@ -64,6 +65,15 @@
   </si>
   <si>
     <t>Utility BP</t>
+  </si>
+  <si>
+    <t>SOC</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Temp.</t>
   </si>
 </sst>
 </file>
@@ -131,13 +141,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,7 +432,7 @@
   <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection sqref="A1:Z14"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,23 +1423,1227 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>20.59</v>
+      </c>
+      <c r="D2" s="1">
+        <f t="shared" ref="D2:D25" si="0">SUM(K2:P2)</f>
+        <v>2020</v>
+      </c>
+      <c r="E2" s="2">
+        <v>6.45</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>100</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1">
+        <v>160</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1800</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>60</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="C3" s="1">
+        <v>21.43</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" si="0"/>
+        <v>1290</v>
+      </c>
+      <c r="E3" s="2">
+        <v>19.34</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1">
+        <v>160</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>70</v>
+      </c>
+      <c r="O3" s="1">
+        <v>60</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A20" si="1">A3+1</f>
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>96.12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>22.32</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="E4" s="2">
+        <v>28.16</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>70</v>
+      </c>
+      <c r="O4" s="1">
+        <v>60</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>242.97</v>
+      </c>
+      <c r="C5" s="1">
+        <v>26.24</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E5" s="2">
+        <v>28.4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>60</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>409.4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>29.05</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E6" s="2">
+        <v>31.75</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>60</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>541.12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>30.78</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="E7" s="2">
+        <v>31.52</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>300</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>60</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>551.79999999999995</v>
+      </c>
+      <c r="C8" s="1">
+        <v>30.65</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E8" s="2">
+        <v>31.87</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>60</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>295.48</v>
+      </c>
+      <c r="C9" s="1">
+        <v>30.76</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>1060</v>
+      </c>
+      <c r="E9" s="2">
+        <v>30.7</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>60</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <v>249.2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>29.31</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="E10" s="2">
+        <v>31.44</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>70</v>
+      </c>
+      <c r="O10" s="1">
+        <v>60</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>266.11</v>
+      </c>
+      <c r="C11" s="1">
+        <v>29.55</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E11" s="2">
+        <v>29.76</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>60</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B12" s="1">
+        <v>200.25</v>
+      </c>
+      <c r="C12" s="3">
+        <v>28.87</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E12" s="2">
+        <v>30.2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>60</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>235.85</v>
+      </c>
+      <c r="C13" s="1">
+        <v>28.86</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E13" s="2">
+        <v>36.630000000000003</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>60</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B14" s="1">
+        <v>209.15</v>
+      </c>
+      <c r="C14" s="1">
+        <v>28.59</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>1930</v>
+      </c>
+      <c r="E14" s="2">
+        <v>34.78</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1800</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1">
+        <v>70</v>
+      </c>
+      <c r="O14" s="1">
+        <v>60</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B15" s="1">
+        <v>179.78</v>
+      </c>
+      <c r="C15" s="1">
+        <v>28.72</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>1290</v>
+      </c>
+      <c r="E15" s="2">
+        <v>39.630000000000003</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1">
+        <v>160</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1">
+        <v>70</v>
+      </c>
+      <c r="O15" s="1">
+        <v>60</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B16" s="1">
+        <v>141.51</v>
+      </c>
+      <c r="C16" s="1">
+        <v>28.49</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>290</v>
+      </c>
+      <c r="E16" s="2">
+        <v>33.24</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1">
+        <v>160</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1">
+        <v>70</v>
+      </c>
+      <c r="O16" s="1">
+        <v>60</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B17" s="1">
+        <v>94.34</v>
+      </c>
+      <c r="C17" s="1">
+        <v>27.23</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>290</v>
+      </c>
+      <c r="E17" s="2">
+        <v>37.08</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1">
+        <v>160</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1">
+        <v>70</v>
+      </c>
+      <c r="O17" s="1">
+        <v>60</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B18" s="1">
+        <v>40.94</v>
+      </c>
+      <c r="C18" s="1">
+        <v>25.36</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E18" s="2">
+        <v>33.840000000000003</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>60</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>23.33</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E19" s="2">
+        <v>21.49</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>60</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>21.94</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E20" s="2">
+        <v>23.47</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>60</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>23.13</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E21" s="2">
+        <v>4.05</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>60</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f>A21+1</f>
+        <v>1</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>22.46</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>60</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <f>A22+1</f>
+        <v>2</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>21.43</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E23" s="2">
+        <v>6.08</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>60</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <f>A23+1</f>
+        <v>3</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>21.43</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1.86</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>60</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <f>A24+1</f>
+        <v>4</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>20.59</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>60</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <f>AVERAGE(B2:B25)</f>
+        <v>156.4916666666667</v>
+      </c>
+      <c r="C26">
+        <f>AVERAGE(C2:C25)</f>
+        <v>25.879583333333333</v>
+      </c>
+      <c r="D26">
+        <f>SUM(D2:D25)</f>
+        <v>9630</v>
+      </c>
+      <c r="E26">
+        <f>MAX(E2:E25)</f>
+        <v>39.630000000000003</v>
+      </c>
+      <c r="K26">
+        <f t="shared" ref="K26:P26" si="2">MAX(K2:K25)</f>
+        <v>160</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>1800</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="Q26">
+        <f>SUM(K26:P26)</f>
+        <v>3390</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1436,8 +2651,8 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -1460,29 +2675,29 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>20.59</v>
+        <v>18.36</v>
       </c>
       <c r="D2" s="1">
         <f>SUM(I2:N2)</f>
-        <v>2020</v>
-      </c>
-      <c r="E2" s="2">
-        <v>6.45</v>
+        <v>60</v>
+      </c>
+      <c r="E2" s="1">
+        <v>23.69</v>
       </c>
       <c r="F2" s="2">
-        <v>6.45</v>
+        <v>100</v>
       </c>
       <c r="I2" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
@@ -1499,26 +2714,27 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>6</v>
+        <f>A2+1</f>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>21.43</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="D3" s="1">
-        <f>SUM(I3:N3)</f>
-        <v>1290</v>
-      </c>
-      <c r="E3" s="2">
-        <v>19.34</v>
+        <f t="shared" ref="D3:D49" si="0">SUM(I3:N3)</f>
+        <v>60</v>
+      </c>
+      <c r="E3" s="1">
+        <v>18.55</v>
       </c>
       <c r="F3" s="2">
-        <v>19.34</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -1527,35 +2743,35 @@
         <v>0</v>
       </c>
       <c r="L3" s="1">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="M3" s="1">
         <v>60</v>
       </c>
       <c r="N3" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>A3+1</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>96.12</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>22.32</v>
+        <v>16.63</v>
       </c>
       <c r="D4" s="1">
-        <f>SUM(I4:N4)</f>
-        <v>130</v>
-      </c>
-      <c r="E4" s="2">
-        <v>28.16</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E4" s="1">
+        <v>16.8</v>
       </c>
       <c r="F4" s="2">
-        <v>28.16</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -1567,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1">
         <v>60</v>
@@ -1578,24 +2794,24 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f>A4+1</f>
-        <v>8</v>
+        <f t="shared" ref="A5:A49" si="1">A4+1</f>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>242.97</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>26.24</v>
+        <v>16.09</v>
       </c>
       <c r="D5" s="1">
-        <f>SUM(I5:N5)</f>
-        <v>60</v>
-      </c>
-      <c r="E5" s="2">
-        <v>28.4</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E5" s="1">
+        <v>14.37</v>
       </c>
       <c r="F5" s="2">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -1618,24 +2834,24 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f>A5+1</f>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>409.4</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>29.05</v>
+        <v>15.81</v>
       </c>
       <c r="D6" s="1">
-        <f>SUM(I6:N6)</f>
-        <v>60</v>
-      </c>
-      <c r="E6" s="2">
-        <v>31.75</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4.05</v>
       </c>
       <c r="F6" s="2">
-        <v>31.75</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -1658,33 +2874,33 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f>A6+1</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>541.12</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>30.78</v>
+        <v>15.69</v>
       </c>
       <c r="D7" s="1">
-        <f>SUM(I7:N7)</f>
-        <v>360</v>
-      </c>
-      <c r="E7" s="2">
-        <v>31.52</v>
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="E7" s="1">
+        <v>15.53</v>
       </c>
       <c r="F7" s="2">
-        <v>31.52</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="K7" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1">
         <v>0</v>
@@ -1698,27 +2914,27 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f>A7+1</f>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>551.79999999999995</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>30.65</v>
+        <v>16.309999999999999</v>
       </c>
       <c r="D8" s="1">
-        <f>SUM(I8:N8)</f>
-        <v>60</v>
-      </c>
-      <c r="E8" s="2">
-        <v>31.87</v>
+        <f t="shared" si="0"/>
+        <v>1290</v>
+      </c>
+      <c r="E8" s="1">
+        <v>22.82</v>
       </c>
       <c r="F8" s="2">
-        <v>31.87</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1727,35 +2943,35 @@
         <v>0</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="M8" s="1">
         <v>60</v>
       </c>
       <c r="N8" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <f>A8+1</f>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>295.48</v>
+        <v>66.75</v>
       </c>
       <c r="C9" s="1">
-        <v>30.76</v>
+        <v>18.72</v>
       </c>
       <c r="D9" s="1">
-        <f>SUM(I9:N9)</f>
-        <v>1060</v>
-      </c>
-      <c r="E9" s="2">
-        <v>30.7</v>
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="E9" s="1">
+        <v>31.25</v>
       </c>
       <c r="F9" s="2">
-        <v>30.7</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -1767,35 +2983,35 @@
         <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="M9" s="1">
         <v>60</v>
       </c>
       <c r="N9" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <f>A9+1</f>
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>249.2</v>
+        <v>237.63</v>
       </c>
       <c r="C10" s="1">
-        <v>29.31</v>
+        <v>22.06</v>
       </c>
       <c r="D10" s="1">
-        <f>SUM(I10:N10)</f>
-        <v>130</v>
-      </c>
-      <c r="E10" s="2">
-        <v>31.44</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E10" s="1">
+        <v>42.34</v>
       </c>
       <c r="F10" s="2">
-        <v>31.44</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -1807,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="1">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="M10" s="1">
         <v>60</v>
@@ -1818,24 +3034,24 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <f>A10+1</f>
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>266.11</v>
+        <v>390.71</v>
       </c>
       <c r="C11" s="1">
-        <v>29.55</v>
+        <v>24.38</v>
       </c>
       <c r="D11" s="1">
-        <f>SUM(I11:N11)</f>
-        <v>60</v>
-      </c>
-      <c r="E11" s="2">
-        <v>29.76</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E11" s="1">
+        <v>51.49</v>
       </c>
       <c r="F11" s="2">
-        <v>29.76</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -1858,24 +3074,24 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f>A11+1</f>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>200.25</v>
-      </c>
-      <c r="C12" s="3">
-        <v>28.87</v>
+        <v>567.82000000000005</v>
+      </c>
+      <c r="C12" s="1">
+        <v>26.48</v>
       </c>
       <c r="D12" s="1">
-        <f>SUM(I12:N12)</f>
-        <v>60</v>
-      </c>
-      <c r="E12" s="2">
-        <v>30.2</v>
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="E12" s="1">
+        <v>51.01</v>
       </c>
       <c r="F12" s="2">
-        <v>30.2</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -1884,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L12" s="1">
         <v>0</v>
@@ -1898,24 +3114,24 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <f>A12+1</f>
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>235.85</v>
+        <v>702.21</v>
       </c>
       <c r="C13" s="1">
-        <v>28.86</v>
+        <v>28.04</v>
       </c>
       <c r="D13" s="1">
-        <f>SUM(I13:N13)</f>
-        <v>60</v>
-      </c>
-      <c r="E13" s="2">
-        <v>36.630000000000003</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E13" s="1">
+        <v>47.86</v>
       </c>
       <c r="F13" s="2">
-        <v>36.630000000000003</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
@@ -1938,70 +3154,74 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f>A13+1</f>
-        <v>17</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>209.15</v>
+        <v>802.78</v>
       </c>
       <c r="C14" s="1">
-        <v>28.59</v>
+        <v>29.12</v>
       </c>
       <c r="D14" s="1">
-        <f>SUM(I14:N14)</f>
-        <v>1930</v>
-      </c>
-      <c r="E14" s="2">
-        <v>34.78</v>
+        <f t="shared" si="0"/>
+        <v>1060</v>
+      </c>
+      <c r="E14" s="1">
+        <v>40.840000000000003</v>
       </c>
       <c r="F14" s="2">
-        <v>34.78</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>1800</v>
-      </c>
-      <c r="K14" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
       <c r="L14" s="1">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="M14" s="1">
         <v>60</v>
       </c>
       <c r="N14" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <f>A14+1</f>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>179.78</v>
+        <v>873.09</v>
       </c>
       <c r="C15" s="1">
-        <v>28.72</v>
+        <v>29.79</v>
       </c>
       <c r="D15" s="1">
-        <f>SUM(I15:N15)</f>
-        <v>1290</v>
-      </c>
-      <c r="E15" s="2">
-        <v>39.630000000000003</v>
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="E15" s="1">
+        <v>39.96</v>
       </c>
       <c r="F15" s="2">
-        <v>39.630000000000003</v>
+        <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
       </c>
-      <c r="K15" s="1"/>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
       <c r="L15" s="1">
         <v>70</v>
       </c>
@@ -2009,39 +3229,41 @@
         <v>60</v>
       </c>
       <c r="N15" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f>A15+1</f>
-        <v>19</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>141.51</v>
+        <v>899.79</v>
       </c>
       <c r="C16" s="1">
-        <v>28.49</v>
+        <v>30.07</v>
       </c>
       <c r="D16" s="1">
-        <f>SUM(I16:N16)</f>
-        <v>290</v>
-      </c>
-      <c r="E16" s="2">
-        <v>33.24</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E16" s="1">
+        <v>50.31</v>
       </c>
       <c r="F16" s="2">
-        <v>33.24</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
       </c>
-      <c r="K16" s="1"/>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
       <c r="L16" s="1">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="M16" s="1">
         <v>60</v>
@@ -2052,34 +3274,36 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f>A16+1</f>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>94.34</v>
+        <v>870.42</v>
       </c>
       <c r="C17" s="1">
-        <v>27.23</v>
+        <v>30.06</v>
       </c>
       <c r="D17" s="1">
-        <f>SUM(I17:N17)</f>
-        <v>290</v>
-      </c>
-      <c r="E17" s="2">
-        <v>37.08</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E17" s="1">
+        <v>36.21</v>
       </c>
       <c r="F17" s="2">
-        <v>37.08</v>
+        <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
       </c>
-      <c r="K17" s="1"/>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
       <c r="L17" s="1">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="M17" s="1">
         <v>60</v>
@@ -2090,24 +3314,24 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f>A17+1</f>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>40.94</v>
+        <v>797.44</v>
       </c>
       <c r="C18" s="1">
-        <v>25.36</v>
+        <v>29.83</v>
       </c>
       <c r="D18" s="1">
-        <f>SUM(I18:N18)</f>
-        <v>60</v>
-      </c>
-      <c r="E18" s="2">
-        <v>33.840000000000003</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E18" s="1">
+        <v>35.68</v>
       </c>
       <c r="F18" s="2">
-        <v>33.840000000000003</v>
+        <v>0</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
@@ -2130,36 +3354,34 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f>A18+1</f>
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>685.3</v>
       </c>
       <c r="C19" s="1">
-        <v>23.33</v>
+        <v>29.23</v>
       </c>
       <c r="D19" s="1">
-        <f>SUM(I19:N19)</f>
-        <v>60</v>
-      </c>
-      <c r="E19" s="2">
-        <v>21.49</v>
+        <f t="shared" si="0"/>
+        <v>1930</v>
+      </c>
+      <c r="E19" s="1">
+        <v>33.549999999999997</v>
       </c>
       <c r="F19" s="2">
-        <v>21.49</v>
+        <v>0</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
+        <v>1800</v>
+      </c>
+      <c r="K19" s="1"/>
       <c r="L19" s="1">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="M19" s="1">
         <v>60</v>
@@ -2170,75 +3392,72 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <f>A19+1</f>
-        <v>23</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
+        <v>546.46</v>
       </c>
       <c r="C20" s="1">
-        <v>21.94</v>
+        <v>28.3</v>
       </c>
       <c r="D20" s="1">
-        <f>SUM(I20:N20)</f>
-        <v>60</v>
-      </c>
-      <c r="E20" s="2">
-        <v>23.47</v>
+        <f t="shared" si="0"/>
+        <v>1290</v>
+      </c>
+      <c r="E20" s="1">
+        <v>32.020000000000003</v>
       </c>
       <c r="F20" s="2">
-        <v>23.47</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
       </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
+      <c r="K20" s="1"/>
       <c r="L20" s="1">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="M20" s="1">
         <v>60</v>
       </c>
       <c r="N20" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>0</v>
+        <v>382.7</v>
       </c>
       <c r="C21" s="1">
-        <v>23.13</v>
+        <v>26.78</v>
       </c>
       <c r="D21" s="1">
-        <f>SUM(I21:N21)</f>
-        <v>60</v>
-      </c>
-      <c r="E21" s="2">
-        <v>4.05</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
+      </c>
+      <c r="E21" s="1">
+        <v>36.340000000000003</v>
       </c>
       <c r="F21" s="2">
-        <v>4.05</v>
+        <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
       </c>
-      <c r="K21" s="1">
-        <v>0</v>
-      </c>
+      <c r="K21" s="1"/>
       <c r="L21" s="1">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="M21" s="1">
         <v>60</v>
@@ -2249,36 +3468,34 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f>A21+1</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>215.38</v>
       </c>
       <c r="C22" s="1">
-        <v>22.46</v>
+        <v>24.65</v>
       </c>
       <c r="D22" s="1">
-        <f>SUM(I22:N22)</f>
-        <v>60</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.84</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
+      </c>
+      <c r="E22" s="1">
+        <v>32.24</v>
       </c>
       <c r="F22" s="2">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="I22" s="1">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
       </c>
-      <c r="K22" s="1">
-        <v>0</v>
-      </c>
+      <c r="K22" s="1"/>
       <c r="L22" s="1">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="M22" s="1">
         <v>60</v>
@@ -2289,24 +3506,24 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f>A22+1</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>0</v>
+        <v>57.85</v>
       </c>
       <c r="C23" s="1">
-        <v>21.43</v>
+        <v>21.24</v>
       </c>
       <c r="D23" s="1">
-        <f>SUM(I23:N23)</f>
-        <v>60</v>
-      </c>
-      <c r="E23" s="2">
-        <v>6.08</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E23" s="1">
+        <v>27.06</v>
       </c>
       <c r="F23" s="2">
-        <v>6.08</v>
+        <v>0</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
@@ -2329,24 +3546,24 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f>A23+1</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
       </c>
       <c r="C24" s="1">
-        <v>21.43</v>
+        <v>18.489999999999998</v>
       </c>
       <c r="D24" s="1">
-        <f>SUM(I24:N24)</f>
-        <v>60</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1.86</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E24" s="1">
+        <v>11.75</v>
       </c>
       <c r="F24" s="2">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
@@ -2369,59 +3586,993 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <f>A24+1</f>
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>15.78</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E25" s="1">
+        <v>6.09</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>60</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
+        <v>13.98</v>
+      </c>
+      <c r="D26" s="1">
+        <f>SUM(I26:N26)</f>
+        <v>60</v>
+      </c>
+      <c r="E26" s="1">
+        <v>5.98</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>60</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4">
+        <v>13.06</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E27" s="1">
+        <v>10.67</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>60</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4">
+        <v>12.47</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E28" s="1">
+        <v>14.37</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>60</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4">
+        <v>11.86</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E29" s="1">
+        <v>15.46</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>60</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B25" s="1">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1">
-        <v>20.59</v>
-      </c>
-      <c r="D25" s="1">
-        <f>SUM(I25:N25)</f>
-        <v>60</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0</v>
-      </c>
-      <c r="L25" s="1">
-        <v>0</v>
-      </c>
-      <c r="M25" s="1">
-        <v>60</v>
-      </c>
-      <c r="N25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>11.31</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E30" s="1">
+        <v>21.47</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>60</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4">
+        <v>11.21</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="E31" s="1">
+        <v>23.55</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>160</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1800</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>60</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4">
+        <v>11.68</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="0"/>
+        <v>1290</v>
+      </c>
+      <c r="E32" s="1">
+        <v>28.63</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>160</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>70</v>
+      </c>
+      <c r="M32" s="1">
+        <v>60</v>
+      </c>
+      <c r="N32" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B33" s="1">
+        <v>81.88</v>
+      </c>
+      <c r="C33" s="4">
+        <v>14.63</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="E33" s="1">
+        <v>28.63</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>70</v>
+      </c>
+      <c r="M33" s="1">
+        <v>60</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B26">
-        <f>AVERAGE(B2:B25)</f>
-        <v>156.4916666666667</v>
-      </c>
-      <c r="C26">
-        <f>AVERAGE(C2:C25)</f>
-        <v>25.879583333333333</v>
-      </c>
-      <c r="D26">
-        <f>SUM(D2:D25)</f>
-        <v>9630</v>
+      <c r="B34" s="1">
+        <v>245.64</v>
+      </c>
+      <c r="C34" s="4">
+        <v>18</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E34" s="1">
+        <v>31.02</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>60</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B35" s="1">
+        <v>415.63</v>
+      </c>
+      <c r="C35" s="4">
+        <v>21.35</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E35" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>60</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B36" s="1">
+        <v>575.83000000000004</v>
+      </c>
+      <c r="C36" s="4">
+        <v>23.4</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="E36" s="1">
+        <v>31.57</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>300</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>60</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B37" s="1">
+        <v>699.54</v>
+      </c>
+      <c r="C37" s="4">
+        <v>24.45</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E37" s="1">
+        <v>30.57</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>60</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B38" s="1">
+        <v>817.02</v>
+      </c>
+      <c r="C38" s="4">
+        <v>25.26</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="0"/>
+        <v>1060</v>
+      </c>
+      <c r="E38" s="1">
+        <v>32.31</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>60</v>
+      </c>
+      <c r="N38" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B39" s="1">
+        <v>881.1</v>
+      </c>
+      <c r="C39" s="4">
+        <v>25.8</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="E39" s="1">
+        <v>32.020000000000003</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>70</v>
+      </c>
+      <c r="M39" s="1">
+        <v>60</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B40" s="1">
+        <v>899.79</v>
+      </c>
+      <c r="C40" s="4">
+        <v>26.33</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E40" s="1">
+        <v>32.31</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>60</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B41" s="1">
+        <v>870.42</v>
+      </c>
+      <c r="C41" s="4">
+        <v>26.7</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E41" s="1">
+        <v>33.630000000000003</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>60</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B42" s="1">
+        <v>798.33</v>
+      </c>
+      <c r="C42" s="4">
+        <v>26.85</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E42" s="1">
+        <v>39.42</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>60</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B43" s="1">
+        <v>686.19</v>
+      </c>
+      <c r="C43" s="4">
+        <v>26.73</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="0"/>
+        <v>1930</v>
+      </c>
+      <c r="E43" s="1">
+        <v>60.95</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1800</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1">
+        <v>70</v>
+      </c>
+      <c r="M43" s="1">
+        <v>60</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B44" s="1">
+        <v>545.57000000000005</v>
+      </c>
+      <c r="C44" s="4">
+        <v>26.38</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="0"/>
+        <v>1290</v>
+      </c>
+      <c r="E44" s="1">
+        <v>57.41</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>160</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1">
+        <v>70</v>
+      </c>
+      <c r="M44" s="1">
+        <v>60</v>
+      </c>
+      <c r="N44" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B45" s="1">
+        <v>383.59</v>
+      </c>
+      <c r="C45" s="4">
+        <v>25.71</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="0"/>
+        <v>290</v>
+      </c>
+      <c r="E45" s="1">
+        <v>46.22</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>160</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1">
+        <v>70</v>
+      </c>
+      <c r="M45" s="1">
+        <v>60</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B46" s="1">
+        <v>214.49</v>
+      </c>
+      <c r="C46" s="4">
+        <v>24.07</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="0"/>
+        <v>290</v>
+      </c>
+      <c r="E46" s="1">
+        <v>45.86</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>160</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1">
+        <v>70</v>
+      </c>
+      <c r="M46" s="1">
+        <v>60</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B47" s="1">
+        <v>56.96</v>
+      </c>
+      <c r="C47" s="4">
+        <v>19.59</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E47" s="1">
+        <v>36.07</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1">
+        <v>60</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="4">
+        <v>17.760000000000002</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E48" s="1">
+        <v>32.44</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0</v>
+      </c>
+      <c r="M48" s="1">
+        <v>60</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="4">
+        <v>16.27</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E49">
+        <v>26.95</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0</v>
+      </c>
+      <c r="M49" s="1">
+        <v>60</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
